--- a/biology/Zoologie/Brachypteryx/Brachypteryx.xlsx
+++ b/biology/Zoologie/Brachypteryx/Brachypteryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypteryx est un genre de passereaux de la famille des Muscicapidae. 
 </t>
@@ -511,11 +523,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les travaux de Sangster et al. (2010) et Zuccon &amp; Ericson (2010) montrent que les espèces de ce genre n'appartiennent pas à la famille des Turdidae, mais à la famille des Muscicapidae[1]. S'appuyant sur ces travaux, le Congrès ornithologique international, dans sa classification de référence (version 3.4, 2013), déplace le genre Brachypteryx vers la famille des Muscicapidae[2]. 
-Liste des espèces
-Selon la classification de référence du Congrès ornithologique international  (version 13.2, 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Sangster et al. (2010) et Zuccon &amp; Ericson (2010) montrent que les espèces de ce genre n'appartiennent pas à la famille des Turdidae, mais à la famille des Muscicapidae. S'appuyant sur ces travaux, le Congrès ornithologique international, dans sa classification de référence (version 3.4, 2013), déplace le genre Brachypteryx vers la famille des Muscicapidae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brachypteryx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachypteryx</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 13.2, 2023) :
 Brachypteryx hyperythra – Brachyptère à ventre roux
 Brachypteryx leucophris – Petite Brachyptère
 Brachypteryx cruralis – Brachyptère de l'Himalaya
@@ -529,34 +578,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Brachypteryx</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brachypteryx</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Brachypteryx Horsfield, 1821[4].
-Brachypteryx a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Brachypteryx Horsfield, 1821.
+Brachypteryx a pour synonymes :
 Brachypterix Brayley, 1827
 Goldana Gray, 1840</t>
         </is>
